--- a/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B2" t="n">
-        <v>20.0787232488426</v>
+        <v>4.767381147172078</v>
       </c>
       <c r="C2" t="n">
-        <v>-34.81720010181629</v>
+        <v>-46.64274053628687</v>
       </c>
       <c r="D2" t="n">
-        <v>72.51110970650068</v>
+        <v>56.6831517366876</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B3" t="n">
-        <v>41.05555833186373</v>
+        <v>19.82401737158273</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.768572840373481</v>
+        <v>-29.48833249076218</v>
       </c>
       <c r="D3" t="n">
-        <v>93.78831975605809</v>
+        <v>67.34913636001788</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44866</v>
@@ -513,99 +513,99 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B4" t="n">
-        <v>59.3619875551698</v>
+        <v>40.78698509729577</v>
       </c>
       <c r="C4" t="n">
-        <v>8.313572357361364</v>
+        <v>-8.322208672520308</v>
       </c>
       <c r="D4" t="n">
-        <v>111.3033010150674</v>
+        <v>89.10721630754519</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B5" t="n">
-        <v>80.29971755368871</v>
+        <v>58.10317926728136</v>
       </c>
       <c r="C5" t="n">
-        <v>29.80412570167886</v>
+        <v>9.293275359234574</v>
       </c>
       <c r="D5" t="n">
-        <v>130.1157608715133</v>
+        <v>109.6104528159359</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B6" t="n">
-        <v>87.65374055170233</v>
+        <v>79.63825558077923</v>
       </c>
       <c r="C6" t="n">
-        <v>37.35526894444304</v>
+        <v>32.10592487275339</v>
       </c>
       <c r="D6" t="n">
-        <v>138.5294797151188</v>
+        <v>127.6121409125361</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B7" t="n">
-        <v>65.72908578250733</v>
+        <v>86.32668710044055</v>
       </c>
       <c r="C7" t="n">
-        <v>15.43682765945299</v>
+        <v>35.7179132081126</v>
       </c>
       <c r="D7" t="n">
-        <v>116.9466097533461</v>
+        <v>134.8471199620012</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B8" t="n">
-        <v>83.9198548381833</v>
+        <v>63.42703177198997</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4910250947668</v>
+        <v>15.7695836667733</v>
       </c>
       <c r="D8" t="n">
-        <v>128.8885809538958</v>
+        <v>119.1963481807812</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44894</v>
@@ -613,79 +613,79 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B9" t="n">
-        <v>84.36653880925749</v>
+        <v>81.39766342930398</v>
       </c>
       <c r="C9" t="n">
-        <v>35.68999425667727</v>
+        <v>34.41614789880993</v>
       </c>
       <c r="D9" t="n">
-        <v>136.6607561319035</v>
+        <v>130.3135673457307</v>
       </c>
       <c r="E9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B10" t="n">
-        <v>105.4882045298588</v>
+        <v>83.2906479643561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.48339269027625</v>
+        <v>28.90419631576637</v>
       </c>
       <c r="D10" t="n">
-        <v>157.9209258255059</v>
+        <v>133.7275872543107</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44925</v>
+        <v>44915</v>
       </c>
       <c r="B11" t="n">
-        <v>56.3554148184561</v>
+        <v>103.2678354684102</v>
       </c>
       <c r="C11" t="n">
-        <v>2.924220835040577</v>
+        <v>54.22387709971147</v>
       </c>
       <c r="D11" t="n">
-        <v>102.4017754380167</v>
+        <v>153.9317199206997</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44929</v>
+        <v>44925</v>
       </c>
       <c r="B12" t="n">
-        <v>58.13382128354634</v>
+        <v>55.03033166729047</v>
       </c>
       <c r="C12" t="n">
-        <v>2.983911937749561</v>
+        <v>3.280260937527121</v>
       </c>
       <c r="D12" t="n">
-        <v>105.6031013877014</v>
+        <v>107.1871083611509</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44922</v>
@@ -693,42 +693,42 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B13" t="n">
-        <v>37.28551568279829</v>
+        <v>57.27364064082692</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.6144877725489</v>
+        <v>7.073721269918789</v>
       </c>
       <c r="D13" t="n">
-        <v>89.67521028695124</v>
+        <v>107.8035367486252</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44953</v>
+        <v>44943</v>
       </c>
       <c r="B14" t="n">
-        <v>50.66452122357437</v>
+        <v>35.5089698468402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4974513119419767</v>
+        <v>-16.9627316151367</v>
       </c>
       <c r="D14" t="n">
-        <v>103.2952207268359</v>
+        <v>82.32922478347687</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="15">
@@ -736,13 +736,13 @@
         <v>44960</v>
       </c>
       <c r="B15" t="n">
-        <v>81.43174638100365</v>
+        <v>61.27633731689195</v>
       </c>
       <c r="C15" t="n">
-        <v>25.53339672609293</v>
+        <v>8.438513044230211</v>
       </c>
       <c r="D15" t="n">
-        <v>133.3840232165922</v>
+        <v>110.3021113013061</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -756,13 +756,13 @@
         <v>44964</v>
       </c>
       <c r="B16" t="n">
-        <v>86.50172016764682</v>
+        <v>75.71000567705109</v>
       </c>
       <c r="C16" t="n">
-        <v>36.05643893432546</v>
+        <v>20.52928963399097</v>
       </c>
       <c r="D16" t="n">
-        <v>138.540919955347</v>
+        <v>125.1418413940921</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44974</v>
       </c>
       <c r="B17" t="n">
-        <v>22.46712895583827</v>
+        <v>16.89825240164509</v>
       </c>
       <c r="C17" t="n">
-        <v>-28.14037478078185</v>
+        <v>-32.79844693695093</v>
       </c>
       <c r="D17" t="n">
-        <v>72.27697946293492</v>
+        <v>66.53785803648108</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44980</v>
       </c>
       <c r="B18" t="n">
-        <v>22.40232230850978</v>
+        <v>21.85208906668895</v>
       </c>
       <c r="C18" t="n">
-        <v>-29.51695869222223</v>
+        <v>-26.46462330179024</v>
       </c>
       <c r="D18" t="n">
-        <v>78.55759714254964</v>
+        <v>70.61578615005008</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -816,13 +816,13 @@
         <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>50.69272046812723</v>
+        <v>48.27158151123665</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.262788611549321</v>
+        <v>-3.55042692914891</v>
       </c>
       <c r="D19" t="n">
-        <v>102.9156412381777</v>
+        <v>97.25340082878981</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44988</v>
       </c>
       <c r="B20" t="n">
-        <v>50.17120800559358</v>
+        <v>40.36931124940138</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.261629104515805</v>
+        <v>-10.459679578232</v>
       </c>
       <c r="D20" t="n">
-        <v>103.1500344292625</v>
+        <v>87.9305194507144</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -856,13 +856,13 @@
         <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>86.04145545331937</v>
+        <v>79.50281522610221</v>
       </c>
       <c r="C21" t="n">
-        <v>35.03185165330878</v>
+        <v>28.49882724302185</v>
       </c>
       <c r="D21" t="n">
-        <v>140.4577961744058</v>
+        <v>131.7082380652211</v>
       </c>
       <c r="E21" t="n">
         <v>70</v>
@@ -876,13 +876,13 @@
         <v>45002</v>
       </c>
       <c r="B22" t="n">
-        <v>74.1743538791078</v>
+        <v>67.98005766108281</v>
       </c>
       <c r="C22" t="n">
-        <v>24.01304854257794</v>
+        <v>15.11490060382189</v>
       </c>
       <c r="D22" t="n">
-        <v>126.257059186543</v>
+        <v>116.0945757915837</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>45006</v>
       </c>
       <c r="B23" t="n">
-        <v>75.81148877193928</v>
+        <v>73.79804272584053</v>
       </c>
       <c r="C23" t="n">
-        <v>24.77888913197615</v>
+        <v>19.15956890984859</v>
       </c>
       <c r="D23" t="n">
-        <v>122.1651737190613</v>
+        <v>122.4312102560423</v>
       </c>
       <c r="E23" t="n">
         <v>110</v>
@@ -916,13 +916,13 @@
         <v>45013</v>
       </c>
       <c r="B24" t="n">
-        <v>45.07634138732914</v>
+        <v>41.3607318882249</v>
       </c>
       <c r="C24" t="n">
-        <v>-9.711994616711873</v>
+        <v>-8.709596055516467</v>
       </c>
       <c r="D24" t="n">
-        <v>98.46856538816631</v>
+        <v>89.11283861203898</v>
       </c>
       <c r="E24" t="n">
         <v>150</v>
@@ -936,13 +936,13 @@
         <v>45022</v>
       </c>
       <c r="B25" t="n">
-        <v>43.08588047735703</v>
+        <v>34.37105898310627</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.84819249347811</v>
+        <v>-17.65021235066045</v>
       </c>
       <c r="D25" t="n">
-        <v>97.87357815612953</v>
+        <v>84.54946617596116</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -956,13 +956,13 @@
         <v>45027</v>
       </c>
       <c r="B26" t="n">
-        <v>71.51501089217996</v>
+        <v>70.25273309527033</v>
       </c>
       <c r="C26" t="n">
-        <v>20.56613997542674</v>
+        <v>16.2802170922945</v>
       </c>
       <c r="D26" t="n">
-        <v>122.5838618365775</v>
+        <v>121.3401423897461</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -976,13 +976,13 @@
         <v>45034</v>
       </c>
       <c r="B27" t="n">
-        <v>116.2064703546679</v>
+        <v>122.7921311509764</v>
       </c>
       <c r="C27" t="n">
-        <v>63.41916589122711</v>
+        <v>71.57307766084017</v>
       </c>
       <c r="D27" t="n">
-        <v>167.3089730566219</v>
+        <v>175.607165686864</v>
       </c>
       <c r="E27" t="n">
         <v>240</v>
@@ -996,13 +996,13 @@
         <v>45057</v>
       </c>
       <c r="B28" t="n">
-        <v>63.70374497463237</v>
+        <v>54.69110664101846</v>
       </c>
       <c r="C28" t="n">
-        <v>10.47497515851664</v>
+        <v>6.030917225484042</v>
       </c>
       <c r="D28" t="n">
-        <v>119.543214440076</v>
+        <v>106.2468200131882</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1022,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,22 +1077,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>240.4592640006233</v>
+        <v>174.2264139385923</v>
       </c>
       <c r="C2" t="n">
-        <v>15.50674898231809</v>
+        <v>13.19948536642972</v>
       </c>
       <c r="D2" t="n">
-        <v>15.34177908442363</v>
+        <v>11.25948495820866</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4380689790995783</v>
+        <v>0.2996998697181592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4380689790995783</v>
+        <v>0.2996998697181592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4610515669623428</v>
+        <v>0.3613123155967137</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1103,51 +1103,77 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4581.362421225997</v>
+        <v>741.0001422740277</v>
       </c>
       <c r="C3" t="n">
-        <v>67.68576232285484</v>
+        <v>27.22131779091577</v>
       </c>
       <c r="D3" t="n">
-        <v>48.69821166876122</v>
+        <v>25.02247209953128</v>
       </c>
       <c r="E3" t="n">
-        <v>1.185781536577566</v>
+        <v>0.9599503090233563</v>
       </c>
       <c r="F3" t="n">
-        <v>1.062613361432848</v>
+        <v>0.8343443889096823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.840349677700813</v>
+        <v>0.667429735119299</v>
       </c>
       <c r="H3" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>384.1902211664992</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.60077093296331</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.12754547617961</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7416060971530745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6788031370962373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6880511442954846</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>3714.072917782763</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60.94319418756096</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.27232728920558</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.039450426030252</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3986642473030549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6150622445079241</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5882352941176467</v>
+      <c r="B5" t="n">
+        <v>3549.019251887657</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59.57364561521862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.33637207897425</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9518065287049966</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4081838358859967</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.598664527188606</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6470588235294121</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B2" t="n">
-        <v>4.767381147172078</v>
+        <v>20.87958298230455</v>
       </c>
       <c r="C2" t="n">
-        <v>-46.64274053628687</v>
+        <v>-28.15986480500207</v>
       </c>
       <c r="D2" t="n">
-        <v>56.6831517366876</v>
+        <v>71.33446032401108</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B3" t="n">
-        <v>19.82401737158273</v>
+        <v>42.23383482234991</v>
       </c>
       <c r="C3" t="n">
-        <v>-29.48833249076218</v>
+        <v>-7.442608585647633</v>
       </c>
       <c r="D3" t="n">
-        <v>67.34913636001788</v>
+        <v>93.01117708571404</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44866</v>
@@ -513,99 +513,99 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59.92590679800611</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.930001445067612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.4639892155404</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B4" t="n">
-        <v>40.78698509729577</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-8.322208672520308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89.10721630754519</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80.88164658823678</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.81687882182953</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.332830897772</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B5" t="n">
-        <v>58.10317926728136</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.293275359234574</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.6104528159359</v>
-      </c>
-      <c r="E5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B6" t="n">
+        <v>86.97202737694067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35.48226317692881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>136.7489283945068</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B6" t="n">
-        <v>79.63825558077923</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32.10592487275339</v>
-      </c>
-      <c r="D6" t="n">
-        <v>127.6121409125361</v>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64.9520206829237</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.0697738131295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115.5041973495925</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B7" t="n">
-        <v>86.32668710044055</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35.7179132081126</v>
-      </c>
-      <c r="D7" t="n">
-        <v>134.8471199620012</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B8" t="n">
-        <v>63.42703177198997</v>
+        <v>82.90400723302542</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7695836667733</v>
+        <v>32.94741738740078</v>
       </c>
       <c r="D8" t="n">
-        <v>119.1963481807812</v>
+        <v>130.4032376457819</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44894</v>
@@ -613,79 +613,79 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84.18557374991452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34.56864068476915</v>
+      </c>
+      <c r="D9" t="n">
+        <v>134.54455966034</v>
+      </c>
+      <c r="E9" t="n">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B9" t="n">
-        <v>81.39766342930398</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.41614789880993</v>
-      </c>
-      <c r="D9" t="n">
-        <v>130.3135673457307</v>
-      </c>
-      <c r="E9" t="n">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B10" t="n">
+        <v>104.8886161733509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56.09040360195207</v>
+      </c>
+      <c r="D10" t="n">
+        <v>156.6827151435413</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B10" t="n">
-        <v>83.2906479643561</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28.90419631576637</v>
-      </c>
-      <c r="D10" t="n">
-        <v>133.7275872543107</v>
-      </c>
-      <c r="E10" t="n">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44915</v>
+        <v>44925</v>
       </c>
       <c r="B11" t="n">
-        <v>103.2678354684102</v>
+        <v>55.7799485277273</v>
       </c>
       <c r="C11" t="n">
-        <v>54.22387709971147</v>
+        <v>7.055188376731723</v>
       </c>
       <c r="D11" t="n">
-        <v>153.9317199206997</v>
+        <v>104.052975174128</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="B12" t="n">
-        <v>55.03033166729047</v>
+        <v>58.22305010442558</v>
       </c>
       <c r="C12" t="n">
-        <v>3.280260937527121</v>
+        <v>7.166657670822092</v>
       </c>
       <c r="D12" t="n">
-        <v>107.1871083611509</v>
+        <v>105.1909857047337</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44922</v>
@@ -693,42 +693,42 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B13" t="n">
-        <v>57.27364064082692</v>
+        <v>36.94953937940551</v>
       </c>
       <c r="C13" t="n">
-        <v>7.073721269918789</v>
+        <v>-15.26658546151947</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8035367486252</v>
+        <v>87.33489388384463</v>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44943</v>
+        <v>44953</v>
       </c>
       <c r="B14" t="n">
-        <v>35.5089698468402</v>
+        <v>50.53936385650397</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.9627316151367</v>
+        <v>-2.784735397129536</v>
       </c>
       <c r="D14" t="n">
-        <v>82.32922478347687</v>
+        <v>99.42910544389274</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="15">
@@ -736,13 +736,13 @@
         <v>44960</v>
       </c>
       <c r="B15" t="n">
-        <v>61.27633731689195</v>
+        <v>81.70917049633832</v>
       </c>
       <c r="C15" t="n">
-        <v>8.438513044230211</v>
+        <v>28.90458647719092</v>
       </c>
       <c r="D15" t="n">
-        <v>110.3021113013061</v>
+        <v>136.0367508274498</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -756,13 +756,13 @@
         <v>44964</v>
       </c>
       <c r="B16" t="n">
-        <v>75.71000567705109</v>
+        <v>87.15880388487513</v>
       </c>
       <c r="C16" t="n">
-        <v>20.52928963399097</v>
+        <v>34.88727073398734</v>
       </c>
       <c r="D16" t="n">
-        <v>125.1418413940921</v>
+        <v>137.966094177926</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44974</v>
       </c>
       <c r="B17" t="n">
-        <v>16.89825240164509</v>
+        <v>23.07070210759698</v>
       </c>
       <c r="C17" t="n">
-        <v>-32.79844693695093</v>
+        <v>-31.38107046164252</v>
       </c>
       <c r="D17" t="n">
-        <v>66.53785803648108</v>
+        <v>72.86524128395466</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44980</v>
       </c>
       <c r="B18" t="n">
-        <v>21.85208906668895</v>
+        <v>24.60510151787926</v>
       </c>
       <c r="C18" t="n">
-        <v>-26.46462330179024</v>
+        <v>-28.27596667349758</v>
       </c>
       <c r="D18" t="n">
-        <v>70.61578615005008</v>
+        <v>76.55204439265955</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -816,13 +816,13 @@
         <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>48.27158151123665</v>
+        <v>53.13103349987882</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.55042692914891</v>
+        <v>0.6014670807419401</v>
       </c>
       <c r="D19" t="n">
-        <v>97.25340082878981</v>
+        <v>107.2029570689073</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44988</v>
       </c>
       <c r="B20" t="n">
-        <v>40.36931124940138</v>
+        <v>51.29751087404161</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.459679578232</v>
+        <v>-1.799472084051891</v>
       </c>
       <c r="D20" t="n">
-        <v>87.9305194507144</v>
+        <v>105.3221539023668</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -856,13 +856,13 @@
         <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>79.50281522610221</v>
+        <v>87.14654036239453</v>
       </c>
       <c r="C21" t="n">
-        <v>28.49882724302185</v>
+        <v>35.36701633441646</v>
       </c>
       <c r="D21" t="n">
-        <v>131.7082380652211</v>
+        <v>139.4451062880551</v>
       </c>
       <c r="E21" t="n">
         <v>70</v>
@@ -876,13 +876,13 @@
         <v>45002</v>
       </c>
       <c r="B22" t="n">
-        <v>67.98005766108281</v>
+        <v>73.66482097905637</v>
       </c>
       <c r="C22" t="n">
-        <v>15.11490060382189</v>
+        <v>25.32822919120638</v>
       </c>
       <c r="D22" t="n">
-        <v>116.0945757915837</v>
+        <v>127.451487139409</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>45006</v>
       </c>
       <c r="B23" t="n">
-        <v>73.79804272584053</v>
+        <v>74.90544588634476</v>
       </c>
       <c r="C23" t="n">
-        <v>19.15956890984859</v>
+        <v>20.80797225904097</v>
       </c>
       <c r="D23" t="n">
-        <v>122.4312102560423</v>
+        <v>124.8725298950095</v>
       </c>
       <c r="E23" t="n">
         <v>110</v>
@@ -916,13 +916,13 @@
         <v>45013</v>
       </c>
       <c r="B24" t="n">
-        <v>41.3607318882249</v>
+        <v>44.02905563632282</v>
       </c>
       <c r="C24" t="n">
-        <v>-8.709596055516467</v>
+        <v>-7.033051875826468</v>
       </c>
       <c r="D24" t="n">
-        <v>89.11283861203898</v>
+        <v>96.12188011374587</v>
       </c>
       <c r="E24" t="n">
         <v>150</v>
@@ -936,13 +936,13 @@
         <v>45022</v>
       </c>
       <c r="B25" t="n">
-        <v>34.37105898310627</v>
+        <v>38.36363813531548</v>
       </c>
       <c r="C25" t="n">
-        <v>-17.65021235066045</v>
+        <v>-14.86254182181199</v>
       </c>
       <c r="D25" t="n">
-        <v>84.54946617596116</v>
+        <v>90.67146040282191</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -956,13 +956,13 @@
         <v>45027</v>
       </c>
       <c r="B26" t="n">
-        <v>70.25273309527033</v>
+        <v>70.21377370830702</v>
       </c>
       <c r="C26" t="n">
-        <v>16.2802170922945</v>
+        <v>19.24501520632869</v>
       </c>
       <c r="D26" t="n">
-        <v>121.3401423897461</v>
+        <v>124.1514022997134</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -976,13 +976,13 @@
         <v>45034</v>
       </c>
       <c r="B27" t="n">
-        <v>122.7921311509764</v>
+        <v>117.1531492167083</v>
       </c>
       <c r="C27" t="n">
-        <v>71.57307766084017</v>
+        <v>62.8321336744462</v>
       </c>
       <c r="D27" t="n">
-        <v>175.607165686864</v>
+        <v>169.5941873257418</v>
       </c>
       <c r="E27" t="n">
         <v>240</v>
@@ -996,13 +996,13 @@
         <v>45057</v>
       </c>
       <c r="B28" t="n">
-        <v>54.69110664101846</v>
+        <v>55.01292169354024</v>
       </c>
       <c r="C28" t="n">
-        <v>6.030917225484042</v>
+        <v>3.125438672918908</v>
       </c>
       <c r="D28" t="n">
-        <v>106.2468200131882</v>
+        <v>110.8309847750842</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1022,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,22 +1077,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>174.2264139385923</v>
+        <v>153.4766710666535</v>
       </c>
       <c r="C2" t="n">
-        <v>13.19948536642972</v>
+        <v>12.38857017846101</v>
       </c>
       <c r="D2" t="n">
-        <v>11.25948495820866</v>
+        <v>11.87926830871811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2996998697181592</v>
+        <v>0.331830199948434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2996998697181592</v>
+        <v>0.331830199948434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3613123155967137</v>
+        <v>0.3606327521418107</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1103,76 +1103,50 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>741.0001422740277</v>
+        <v>4579.304413112448</v>
       </c>
       <c r="C3" t="n">
-        <v>27.22131779091577</v>
+        <v>67.67055794887794</v>
       </c>
       <c r="D3" t="n">
-        <v>25.02247209953128</v>
+        <v>48.63190335360946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9599503090233563</v>
+        <v>1.191062225189074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8343443889096823</v>
+        <v>1.083200914175304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.667429735119299</v>
+        <v>0.8388413325802708</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>384.1902211664992</v>
+        <v>3663.728807366235</v>
       </c>
       <c r="C4" t="n">
-        <v>19.60077093296331</v>
+        <v>60.52874364602519</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12754547617961</v>
+        <v>47.95126379833954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7416060971530745</v>
+        <v>0.9918696409376739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6788031370962373</v>
+        <v>0.4077944940783302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6880511442954846</v>
+        <v>0.615616319834599</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3549.019251887657</v>
-      </c>
-      <c r="C5" t="n">
-        <v>59.57364561521862</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.33637207897425</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9518065287049966</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4081838358859967</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.598664527188606</v>
-      </c>
-      <c r="H5" t="n">
         <v>0.6470588235294121</v>
       </c>
     </row>

--- a/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>20.87958298230455</v>
       </c>
       <c r="C2" t="n">
-        <v>-28.15986480500207</v>
+        <v>-29.96478991035336</v>
       </c>
       <c r="D2" t="n">
-        <v>71.33446032401108</v>
+        <v>74.40801638280176</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -499,10 +499,10 @@
         <v>42.23383482234991</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.442608585647633</v>
+        <v>-6.200524164525965</v>
       </c>
       <c r="D3" t="n">
-        <v>93.01117708571404</v>
+        <v>90.27474347597993</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
@@ -519,10 +519,10 @@
         <v>59.92590679800611</v>
       </c>
       <c r="C4" t="n">
-        <v>9.930001445067612</v>
+        <v>8.31606744453773</v>
       </c>
       <c r="D4" t="n">
-        <v>108.4639892155404</v>
+        <v>110.7056208803801</v>
       </c>
       <c r="E4" t="n">
         <v>90</v>
@@ -539,10 +539,10 @@
         <v>80.88164658823678</v>
       </c>
       <c r="C5" t="n">
-        <v>32.81687882182953</v>
+        <v>32.00553396944564</v>
       </c>
       <c r="D5" t="n">
-        <v>133.332830897772</v>
+        <v>136.6926165220857</v>
       </c>
       <c r="E5" t="n">
         <v>70</v>
@@ -559,10 +559,10 @@
         <v>86.97202737694067</v>
       </c>
       <c r="C6" t="n">
-        <v>35.48226317692881</v>
+        <v>39.84527074986114</v>
       </c>
       <c r="D6" t="n">
-        <v>136.7489283945068</v>
+        <v>136.47234260841</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -579,10 +579,10 @@
         <v>64.9520206829237</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0697738131295</v>
+        <v>14.75062839717532</v>
       </c>
       <c r="D7" t="n">
-        <v>115.5041973495925</v>
+        <v>113.2207404857517</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -599,10 +599,10 @@
         <v>82.90400723302542</v>
       </c>
       <c r="C8" t="n">
-        <v>32.94741738740078</v>
+        <v>33.32560201101426</v>
       </c>
       <c r="D8" t="n">
-        <v>130.4032376457819</v>
+        <v>133.4614107554131</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -619,10 +619,10 @@
         <v>84.18557374991452</v>
       </c>
       <c r="C9" t="n">
-        <v>34.56864068476915</v>
+        <v>35.04826507882763</v>
       </c>
       <c r="D9" t="n">
-        <v>134.54455966034</v>
+        <v>133.8240799099847</v>
       </c>
       <c r="E9" t="n">
         <v>200</v>
@@ -639,10 +639,10 @@
         <v>104.8886161733509</v>
       </c>
       <c r="C10" t="n">
-        <v>56.09040360195207</v>
+        <v>58.20568123162725</v>
       </c>
       <c r="D10" t="n">
-        <v>156.6827151435413</v>
+        <v>155.6810695248106</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -659,10 +659,10 @@
         <v>55.7799485277273</v>
       </c>
       <c r="C11" t="n">
-        <v>7.055188376731723</v>
+        <v>6.279614326714078</v>
       </c>
       <c r="D11" t="n">
-        <v>104.052975174128</v>
+        <v>104.5640601491163</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
@@ -679,10 +679,10 @@
         <v>58.22305010442558</v>
       </c>
       <c r="C12" t="n">
-        <v>7.166657670822092</v>
+        <v>4.407018597642434</v>
       </c>
       <c r="D12" t="n">
-        <v>105.1909857047337</v>
+        <v>109.0930280795238</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -699,10 +699,10 @@
         <v>36.94953937940551</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.26658546151947</v>
+        <v>-18.32037536957741</v>
       </c>
       <c r="D13" t="n">
-        <v>87.33489388384463</v>
+        <v>87.24627843406685</v>
       </c>
       <c r="E13" t="n">
         <v>60</v>
@@ -719,10 +719,10 @@
         <v>50.53936385650397</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.784735397129536</v>
+        <v>2.884733406592376</v>
       </c>
       <c r="D14" t="n">
-        <v>99.42910544389274</v>
+        <v>103.3646793256484</v>
       </c>
       <c r="E14" t="n">
         <v>220</v>
@@ -739,10 +739,10 @@
         <v>81.70917049633832</v>
       </c>
       <c r="C15" t="n">
-        <v>28.90458647719092</v>
+        <v>31.00988189619013</v>
       </c>
       <c r="D15" t="n">
-        <v>136.0367508274498</v>
+        <v>133.441802676168</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -759,10 +759,10 @@
         <v>87.15880388487513</v>
       </c>
       <c r="C16" t="n">
-        <v>34.88727073398734</v>
+        <v>33.21674857900817</v>
       </c>
       <c r="D16" t="n">
-        <v>137.966094177926</v>
+        <v>140.6562377700953</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -779,10 +779,10 @@
         <v>23.07070210759698</v>
       </c>
       <c r="C17" t="n">
-        <v>-31.38107046164252</v>
+        <v>-27.3947350538335</v>
       </c>
       <c r="D17" t="n">
-        <v>72.86524128395466</v>
+        <v>73.38773838756727</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v>24.60510151787926</v>
       </c>
       <c r="C18" t="n">
-        <v>-28.27596667349758</v>
+        <v>-24.19409516350728</v>
       </c>
       <c r="D18" t="n">
-        <v>76.55204439265955</v>
+        <v>84.08720484699228</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -819,10 +819,10 @@
         <v>53.13103349987882</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6014670807419401</v>
+        <v>-1.329463457017227</v>
       </c>
       <c r="D19" t="n">
-        <v>107.2029570689073</v>
+        <v>104.7303007418817</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -839,10 +839,10 @@
         <v>51.29751087404161</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.799472084051891</v>
+        <v>-0.3370708362570389</v>
       </c>
       <c r="D20" t="n">
-        <v>105.3221539023668</v>
+        <v>100.6579666862839</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>87.14654036239453</v>
       </c>
       <c r="C21" t="n">
-        <v>35.36701633441646</v>
+        <v>29.93012268859039</v>
       </c>
       <c r="D21" t="n">
-        <v>139.4451062880551</v>
+        <v>140.8421694925607</v>
       </c>
       <c r="E21" t="n">
         <v>70</v>
@@ -879,10 +879,10 @@
         <v>73.66482097905637</v>
       </c>
       <c r="C22" t="n">
-        <v>25.32822919120638</v>
+        <v>20.71463783555239</v>
       </c>
       <c r="D22" t="n">
-        <v>127.451487139409</v>
+        <v>124.4051862622256</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -899,10 +899,10 @@
         <v>74.90544588634476</v>
       </c>
       <c r="C23" t="n">
-        <v>20.80797225904097</v>
+        <v>20.47051568243326</v>
       </c>
       <c r="D23" t="n">
-        <v>124.8725298950095</v>
+        <v>124.9020356994277</v>
       </c>
       <c r="E23" t="n">
         <v>110</v>
@@ -919,10 +919,10 @@
         <v>44.02905563632282</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.033051875826468</v>
+        <v>-10.1307148591247</v>
       </c>
       <c r="D24" t="n">
-        <v>96.12188011374587</v>
+        <v>93.11108463796418</v>
       </c>
       <c r="E24" t="n">
         <v>150</v>
@@ -939,10 +939,10 @@
         <v>38.36363813531548</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.86254182181199</v>
+        <v>-15.06091756343517</v>
       </c>
       <c r="D25" t="n">
-        <v>90.67146040282191</v>
+        <v>89.88358126469227</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -959,10 +959,10 @@
         <v>70.21377370830702</v>
       </c>
       <c r="C26" t="n">
-        <v>19.24501520632869</v>
+        <v>19.6312196206138</v>
       </c>
       <c r="D26" t="n">
-        <v>124.1514022997134</v>
+        <v>120.7282836908835</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -979,10 +979,10 @@
         <v>117.1531492167083</v>
       </c>
       <c r="C27" t="n">
-        <v>62.8321336744462</v>
+        <v>63.62001601787905</v>
       </c>
       <c r="D27" t="n">
-        <v>169.5941873257418</v>
+        <v>170.2866769252342</v>
       </c>
       <c r="E27" t="n">
         <v>240</v>
@@ -999,10 +999,10 @@
         <v>55.01292169354024</v>
       </c>
       <c r="C28" t="n">
-        <v>3.125438672918908</v>
+        <v>3.87554505943402</v>
       </c>
       <c r="D28" t="n">
-        <v>110.8309847750842</v>
+        <v>105.4186887235816</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1121,7 +1121,7 @@
         <v>0.8388413325802708</v>
       </c>
       <c r="H3" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
